--- a/app/components/nornir/inventory/inventory_unprotected.xlsx
+++ b/app/components/nornir/inventory/inventory_unprotected.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Something_Research\Python\MyLocalRepo2022\NetOpsGUI_v1.0.1.20240416_alpha\app\components\nornir\inventory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Something_Research\Python\MyLocalRepo2022\NetOpsGUI_v1.0.2.20240417_alpha\app\components\nornir\inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2160" windowWidth="28800" windowHeight="12660"/>
+    <workbookView xWindow="0" yWindow="2880" windowWidth="28800" windowHeight="12660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="70">
   <si>
     <t>name</t>
   </si>
@@ -122,6 +122,120 @@
   </si>
   <si>
     <t>SW5</t>
+  </si>
+  <si>
+    <t>192.168.56.26</t>
+  </si>
+  <si>
+    <t>192.168.56.27</t>
+  </si>
+  <si>
+    <t>192.168.56.28</t>
+  </si>
+  <si>
+    <t>192.168.56.29</t>
+  </si>
+  <si>
+    <t>192.168.56.30</t>
+  </si>
+  <si>
+    <t>192.168.56.31</t>
+  </si>
+  <si>
+    <t>192.168.56.32</t>
+  </si>
+  <si>
+    <t>192.168.56.33</t>
+  </si>
+  <si>
+    <t>192.168.56.34</t>
+  </si>
+  <si>
+    <t>192.168.56.35</t>
+  </si>
+  <si>
+    <t>192.168.56.36</t>
+  </si>
+  <si>
+    <t>192.168.56.37</t>
+  </si>
+  <si>
+    <t>192.168.56.38</t>
+  </si>
+  <si>
+    <t>192.168.56.39</t>
+  </si>
+  <si>
+    <t>192.168.56.40</t>
+  </si>
+  <si>
+    <t>192.168.56.41</t>
+  </si>
+  <si>
+    <t>192.168.56.42</t>
+  </si>
+  <si>
+    <t>192.168.56.43</t>
+  </si>
+  <si>
+    <t>192.168.56.44</t>
+  </si>
+  <si>
+    <t>SW6</t>
+  </si>
+  <si>
+    <t>SW7</t>
+  </si>
+  <si>
+    <t>SW8</t>
+  </si>
+  <si>
+    <t>SW9</t>
+  </si>
+  <si>
+    <t>SW10</t>
+  </si>
+  <si>
+    <t>SW11</t>
+  </si>
+  <si>
+    <t>SW12</t>
+  </si>
+  <si>
+    <t>SW13</t>
+  </si>
+  <si>
+    <t>SW14</t>
+  </si>
+  <si>
+    <t>SW15</t>
+  </si>
+  <si>
+    <t>SW16</t>
+  </si>
+  <si>
+    <t>SW17</t>
+  </si>
+  <si>
+    <t>SW18</t>
+  </si>
+  <si>
+    <t>SW19</t>
+  </si>
+  <si>
+    <t>SW20</t>
+  </si>
+  <si>
+    <t>SW21</t>
+  </si>
+  <si>
+    <t>SW22</t>
+  </si>
+  <si>
+    <t>SW23</t>
+  </si>
+  <si>
+    <t>SW24</t>
   </si>
 </sst>
 </file>
@@ -503,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -731,6 +845,557 @@
         <v>22</v>
       </c>
     </row>
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>22</v>
+      </c>
+      <c r="N7">
+        <v>30</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <v>22</v>
+      </c>
+      <c r="N8">
+        <v>30</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9">
+        <v>22</v>
+      </c>
+      <c r="N9">
+        <v>30</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>22</v>
+      </c>
+      <c r="N10">
+        <v>30</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11">
+        <v>22</v>
+      </c>
+      <c r="N11">
+        <v>30</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12">
+        <v>22</v>
+      </c>
+      <c r="N12">
+        <v>30</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13">
+        <v>22</v>
+      </c>
+      <c r="N13">
+        <v>30</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14">
+        <v>22</v>
+      </c>
+      <c r="N14">
+        <v>30</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15">
+        <v>22</v>
+      </c>
+      <c r="N15">
+        <v>30</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16">
+        <v>22</v>
+      </c>
+      <c r="N16">
+        <v>30</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17">
+        <v>22</v>
+      </c>
+      <c r="N17">
+        <v>30</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18">
+        <v>22</v>
+      </c>
+      <c r="N18">
+        <v>30</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19">
+        <v>22</v>
+      </c>
+      <c r="N19">
+        <v>30</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20">
+        <v>22</v>
+      </c>
+      <c r="N20">
+        <v>30</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21">
+        <v>22</v>
+      </c>
+      <c r="N21">
+        <v>30</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22">
+        <v>22</v>
+      </c>
+      <c r="N22">
+        <v>30</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23">
+        <v>22</v>
+      </c>
+      <c r="N23">
+        <v>30</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24">
+        <v>22</v>
+      </c>
+      <c r="N24">
+        <v>30</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25">
+        <v>22</v>
+      </c>
+      <c r="N25">
+        <v>30</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -739,8 +1404,27 @@
     <hyperlink ref="D4" r:id="rId3"/>
     <hyperlink ref="D5" r:id="rId4"/>
     <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>
--- a/app/components/nornir/inventory/inventory_unprotected.xlsx
+++ b/app/components/nornir/inventory/inventory_unprotected.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2880" windowWidth="28800" windowHeight="12660"/>
+    <workbookView xWindow="0" yWindow="3240" windowWidth="28800" windowHeight="12660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="95">
   <si>
     <t>name</t>
   </si>
@@ -236,6 +236,88 @@
   </si>
   <si>
     <t>SW24</t>
+  </si>
+  <si>
+    <t>huawei</t>
+  </si>
+  <si>
+    <t>huawei_vrp</t>
+  </si>
+  <si>
+    <t>ciena_saos</t>
+  </si>
+  <si>
+    <t>cisco_asa</t>
+  </si>
+  <si>
+    <t>cisco_ftd</t>
+  </si>
+  <si>
+    <t>cisco_ios</t>
+  </si>
+  <si>
+    <t>cisco_nxos</t>
+  </si>
+  <si>
+    <t>cisco_s200</t>
+  </si>
+  <si>
+    <t>cisco_s300</t>
+  </si>
+  <si>
+    <t>cisco_tp</t>
+  </si>
+  <si>
+    <t>cisco_viptela</t>
+  </si>
+  <si>
+    <t>cisco_wlc</t>
+  </si>
+  <si>
+    <t>cisco_xe</t>
+  </si>
+  <si>
+    <t>cisco_xr</t>
+  </si>
+  <si>
+    <t>hp_procurve</t>
+  </si>
+  <si>
+    <t>huawei_olt</t>
+  </si>
+  <si>
+    <t>huawei_smartax</t>
+  </si>
+  <si>
+    <t>huawei_vrpv8</t>
+  </si>
+  <si>
+    <t>H3C_S5700</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CISCO_S3500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HUAWEI_AR2612E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HUAWEI_S5735S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础网</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安防网</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼控网</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -620,7 +702,7 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -630,7 +712,7 @@
     <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.75" bestFit="1" customWidth="1"/>
@@ -719,6 +801,12 @@
       <c r="F2">
         <v>22</v>
       </c>
+      <c r="G2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" t="s">
+        <v>92</v>
+      </c>
       <c r="N2">
         <v>30</v>
       </c>
@@ -748,6 +836,12 @@
       <c r="F3">
         <v>22</v>
       </c>
+      <c r="G3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" t="s">
+        <v>92</v>
+      </c>
       <c r="N3">
         <v>30</v>
       </c>
@@ -777,6 +871,12 @@
       <c r="F4">
         <v>22</v>
       </c>
+      <c r="G4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" t="s">
+        <v>92</v>
+      </c>
       <c r="N4">
         <v>30</v>
       </c>
@@ -805,6 +905,12 @@
       </c>
       <c r="F5">
         <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" t="s">
+        <v>92</v>
       </c>
       <c r="N5">
         <v>30</v>
@@ -835,6 +941,12 @@
       <c r="F6">
         <v>22</v>
       </c>
+      <c r="G6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" t="s">
+        <v>92</v>
+      </c>
       <c r="N6">
         <v>30</v>
       </c>
@@ -859,10 +971,16 @@
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="F7">
         <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
       </c>
       <c r="N7">
         <v>30</v>
@@ -888,10 +1006,16 @@
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="F8">
         <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
       </c>
       <c r="N8">
         <v>30</v>
@@ -917,10 +1041,16 @@
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="F9">
         <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
       </c>
       <c r="N9">
         <v>30</v>
@@ -946,10 +1076,16 @@
         <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="F10">
         <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" t="s">
+        <v>93</v>
       </c>
       <c r="N10">
         <v>30</v>
@@ -975,10 +1111,16 @@
         <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="F11">
         <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" t="s">
+        <v>93</v>
       </c>
       <c r="N11">
         <v>30</v>
@@ -1004,10 +1146,16 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="F12">
         <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" t="s">
+        <v>93</v>
       </c>
       <c r="N12">
         <v>30</v>
@@ -1033,10 +1181,16 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="F13">
         <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" t="s">
+        <v>93</v>
       </c>
       <c r="N13">
         <v>30</v>
@@ -1062,10 +1216,16 @@
         <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="F14">
         <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" t="s">
+        <v>93</v>
       </c>
       <c r="N14">
         <v>30</v>
@@ -1091,10 +1251,16 @@
         <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="F15">
         <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" t="s">
+        <v>93</v>
       </c>
       <c r="N15">
         <v>30</v>
@@ -1120,10 +1286,16 @@
         <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="F16">
         <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" t="s">
+        <v>93</v>
       </c>
       <c r="N16">
         <v>30</v>
@@ -1149,10 +1321,16 @@
         <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="F17">
         <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>89</v>
+      </c>
+      <c r="I17" t="s">
+        <v>93</v>
       </c>
       <c r="N17">
         <v>30</v>
@@ -1178,10 +1356,16 @@
         <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="F18">
         <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" t="s">
+        <v>94</v>
       </c>
       <c r="N18">
         <v>30</v>
@@ -1212,6 +1396,12 @@
       <c r="F19">
         <v>22</v>
       </c>
+      <c r="G19" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" t="s">
+        <v>94</v>
+      </c>
       <c r="N19">
         <v>30</v>
       </c>
@@ -1236,10 +1426,16 @@
         <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="F20">
         <v>22</v>
+      </c>
+      <c r="G20" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" t="s">
+        <v>94</v>
       </c>
       <c r="N20">
         <v>30</v>
@@ -1265,10 +1461,16 @@
         <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="F21">
         <v>22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" t="s">
+        <v>94</v>
       </c>
       <c r="N21">
         <v>30</v>
@@ -1294,10 +1496,16 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="F22">
         <v>22</v>
+      </c>
+      <c r="G22" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" t="s">
+        <v>94</v>
       </c>
       <c r="N22">
         <v>30</v>
@@ -1323,10 +1531,16 @@
         <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="F23">
         <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>90</v>
+      </c>
+      <c r="I23" t="s">
+        <v>94</v>
       </c>
       <c r="N23">
         <v>30</v>
@@ -1352,10 +1566,16 @@
         <v>21</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="F24">
         <v>22</v>
+      </c>
+      <c r="G24" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" t="s">
+        <v>94</v>
       </c>
       <c r="N24">
         <v>30</v>
@@ -1381,10 +1601,16 @@
         <v>21</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="F25">
         <v>22</v>
+      </c>
+      <c r="G25" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25" t="s">
+        <v>94</v>
       </c>
       <c r="N25">
         <v>30</v>
